--- a/Documents/Costs.xlsx
+++ b/Documents/Costs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>2x 2.4ghz xbee module</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>AV to VGA Converter</t>
   </si>
 </sst>
 </file>
@@ -184,17 +187,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,11 +479,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -603,21 +604,29 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <v>17.98</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6">
-        <f>SUM(B2:B15)</f>
-        <v>629.17000000000007</v>
+      <c r="B17" s="9">
+        <f>SUM(B2:B16)</f>
+        <v>647.17000000000007</v>
       </c>
     </row>
   </sheetData>
